--- a/xlsx/歐洲_intext.xlsx
+++ b/xlsx/歐洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>欧洲 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_歐洲</t>
+    <t>体育运动_体育运动_宦官_歐洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%BD%97%E5%B7%B4_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -5223,7 +5223,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -14329,7 +14329,7 @@
         <v>646</v>
       </c>
       <c r="G340" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -25813,7 +25813,7 @@
         <v>1368</v>
       </c>
       <c r="G736" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
